--- a/Doc/Sprint0/Product Backlog/Product BackLog_Seller Part.xlsx
+++ b/Doc/Sprint0/Product Backlog/Product BackLog_Seller Part.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339A9BE-E172-4882-AAC7-4F9A2A4B6A7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D4079F-C172-48F3-92E6-0CEDA5B685A1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>User Stories</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,14 +73,6 @@
   </si>
   <si>
     <t>As a seller, I want to display the original price of the Goods and selling price, I want to display if the product is sold or not.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coding: Design and Implement payment gateway page.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coding: Implement Database access and response to user's CRUD operation from product payment gateway page.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,11 +126,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>As a seller, I want to have Payment Gateway to sell the Goods .</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jingzhou Hu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yunwei Jiang</t>
+  </si>
+  <si>
+    <t>Yunwei Jiang: function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jingzhou Hu: Database</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -272,6 +275,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -286,30 +304,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,16 +585,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A4"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
+    <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="20.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="77.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="19" style="2" customWidth="1"/>
@@ -609,46 +603,48 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" ht="60" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="60" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4"/>
       <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4"/>
       <c r="F3" s="2">
@@ -656,8 +652,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -667,34 +663,38 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="13">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
@@ -704,8 +704,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
@@ -715,34 +715,38 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1">
-      <c r="A9" s="13">
+      <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
@@ -752,8 +756,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
@@ -763,36 +767,40 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1">
-      <c r="A13" s="13">
+      <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D15" s="4"/>
       <c r="F15" s="2">
@@ -800,8 +808,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,34 +819,36 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1">
-      <c r="A17" s="13">
+      <c r="A17" s="9">
         <v>5</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4"/>
+      <c r="B17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="4"/>
       <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19" s="2">
@@ -846,8 +856,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,58 +866,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1">
-      <c r="A21" s="13">
-        <v>6</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
+  <mergeCells count="11">
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
